--- a/biology/Zoologie/Bolinichthys/Bolinichthys.xlsx
+++ b/biology/Zoologie/Bolinichthys/Bolinichthys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolinichthys est un genre de poisson Myctophiformes de la famille des Myctophidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (28 mars 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (28 mars 2020) :
 Bolinichthys distofax Johnson, 1975
 Bolinichthys indicus (Nafpaktitis &amp; Nafpaktitis, 1969)
 Bolinichthys longipes (Brauer, 1906)
@@ -548,9 +562,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Bolinichthys a été choisi en l'honneur de Rolf Ling Bolin (d) (1901-1973), ichtyologiste américain spécialiste des poissons-lanternes, pour ses conseils et ses encouragements[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Bolinichthys a été choisi en l'honneur de Rolf Ling Bolin (d) (1901-1973), ichtyologiste américain spécialiste des poissons-lanternes, pour ses conseils et ses encouragements.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) John Richard Paxton, « Osteology and relationships of the lanternfishes (family Myctophidae) », Bulletin of the Natural History Museum of Los Angeles County, vol. 13,‎ 28 juillet 1972, p. 1-81.</t>
         </is>
